--- a/AddrTag-LW.B.xlsx
+++ b/AddrTag-LW.B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCloud\TQWorking\Cheetah600\Cheetah600_LCD\Cheetah600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B895FB-B8D9-4F71-AD41-E6570A72B9AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A1864D-5B7A-4701-B994-9C11C52BB4EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddrTag-LW.B1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="330">
   <si>
     <t>AddrTag Lib</t>
   </si>
@@ -77,108 +77,51 @@
     <t>DO_SF_EV_BPOS</t>
   </si>
   <si>
-    <t>沉淀滤芯电磁阀</t>
-  </si>
-  <si>
     <t>DO_CF_EV_BPOS</t>
   </si>
   <si>
-    <t>活性炭滤芯电磁阀</t>
-  </si>
-  <si>
     <t>DO_DTI_EV_BPOS</t>
   </si>
   <si>
-    <t>饮水箱进水</t>
-  </si>
-  <si>
     <t>DO_CIRCLE_EV_BPOS</t>
   </si>
   <si>
-    <t>循环支路</t>
-  </si>
-  <si>
     <t>DO_SC_EV_BPOS</t>
   </si>
   <si>
-    <t>沉淀杯清洗</t>
-  </si>
-  <si>
     <t>DO_ET_EV_BPOS</t>
   </si>
   <si>
-    <t>膨胀水箱</t>
-  </si>
-  <si>
-    <t>冰水阀</t>
-  </si>
-  <si>
     <t>DO_CIRCLE_PUMP_BPOS</t>
   </si>
   <si>
-    <t>循环泵</t>
-  </si>
-  <si>
     <t>DO_AIR_PUMP_BPOS</t>
   </si>
   <si>
-    <t>气泵</t>
-  </si>
-  <si>
     <t>DO_UV_BPOS</t>
   </si>
   <si>
-    <t>UV</t>
-  </si>
-  <si>
     <t>DO_COMP1_BPOS</t>
   </si>
   <si>
-    <t>压机1启动</t>
-  </si>
-  <si>
     <t>DO_COMP2_BPOS</t>
   </si>
   <si>
-    <t>压机2</t>
-  </si>
-  <si>
-    <t>DO_HOTBYPASS_BPOS</t>
-  </si>
-  <si>
-    <t>热气旁通</t>
-  </si>
-  <si>
     <t>DO_RELL_BPOS</t>
   </si>
   <si>
-    <t>转轮</t>
-  </si>
-  <si>
     <t>DO_RELL_HEAT_BPOS</t>
   </si>
   <si>
-    <t>转轮电加热</t>
-  </si>
-  <si>
     <t>DO_NORMAL_WATER_BPOS</t>
   </si>
   <si>
-    <t>常温水</t>
-  </si>
-  <si>
     <t>DO_COLD_WATER_BPOS</t>
   </si>
   <si>
-    <t>冰水</t>
-  </si>
-  <si>
     <t>DO_RSV_BPOS_1</t>
   </si>
   <si>
-    <t>预留</t>
-  </si>
-  <si>
     <t>DO_RSV_BPOS_2</t>
   </si>
   <si>
@@ -197,22 +140,10 @@
     <t>DO_LED_GREEN_BPOS</t>
   </si>
   <si>
-    <t>绿灯</t>
-  </si>
-  <si>
     <t>DO_LED_RED_BPOS</t>
   </si>
   <si>
-    <t>红灯</t>
-  </si>
-  <si>
     <t>DO_LED_ORANGE_BPOS</t>
-  </si>
-  <si>
-    <t>橙灯</t>
-  </si>
-  <si>
-    <t>DO_RSV_BPOS_3</t>
   </si>
   <si>
     <t>DO_ALARM_BPOS</t>
@@ -286,575 +217,990 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>DO_COLD_EV_BPOS</t>
+    <t>1721.0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>环境高温</t>
-  </si>
-  <si>
-    <t>环境低温</t>
-  </si>
-  <si>
-    <t>内部通信</t>
-  </si>
-  <si>
-    <t>NTC温度传感器</t>
-  </si>
-  <si>
-    <t>保留1</t>
-  </si>
-  <si>
-    <t>保留2</t>
-  </si>
-  <si>
-    <t>风机1故障</t>
-  </si>
-  <si>
-    <t>风机1超时</t>
-  </si>
-  <si>
-    <t>风机2故障</t>
-  </si>
-  <si>
-    <t>保留3</t>
-  </si>
-  <si>
-    <t>保留4</t>
-  </si>
-  <si>
-    <t>系统1高压</t>
-  </si>
-  <si>
-    <t>系统1高压锁死</t>
-  </si>
-  <si>
-    <t>系统1低压</t>
-  </si>
-  <si>
-    <t>系统1排气高温</t>
-  </si>
-  <si>
-    <t>系统1排气高温锁死</t>
-  </si>
-  <si>
-    <t>压机1超时</t>
-  </si>
-  <si>
-    <t>变频器1故障</t>
-  </si>
-  <si>
-    <t>系统1EEV1故障</t>
-  </si>
-  <si>
-    <t>系统1EEV2故障</t>
-  </si>
-  <si>
-    <t>保留5</t>
-  </si>
-  <si>
-    <t>保留6</t>
-  </si>
-  <si>
-    <t>系统2高压</t>
-  </si>
-  <si>
-    <t>系统2低压</t>
-  </si>
-  <si>
-    <t>系统2排气高温</t>
-  </si>
-  <si>
-    <t>系统2排气高温锁死</t>
-  </si>
-  <si>
-    <t>压机2超时</t>
-  </si>
-  <si>
-    <t>变频器5故障</t>
-  </si>
-  <si>
-    <t>系统2EEV1故障</t>
-  </si>
-  <si>
-    <t>系统2EEV2故障</t>
-  </si>
-  <si>
-    <t>保留7</t>
-  </si>
-  <si>
-    <t>保留8</t>
-  </si>
-  <si>
-    <t>气流丢失</t>
-  </si>
-  <si>
-    <t>滤网堵塞</t>
-  </si>
-  <si>
-    <t>滤网超时</t>
-  </si>
-  <si>
-    <t>漏水告警</t>
-  </si>
-  <si>
-    <t>门锁打开</t>
-  </si>
-  <si>
-    <t>流量开关</t>
-  </si>
-  <si>
-    <t>避雷器</t>
-  </si>
-  <si>
-    <t>相序错</t>
-  </si>
-  <si>
-    <t>保留9</t>
-  </si>
-  <si>
-    <t>保留10</t>
-  </si>
-  <si>
-    <t>更换滤芯1</t>
-  </si>
-  <si>
-    <t>循环清洁未完成</t>
-  </si>
-  <si>
-    <t>循环泵故障</t>
-  </si>
-  <si>
-    <t>气泵故障</t>
-  </si>
-  <si>
-    <t>UV故障</t>
-  </si>
-  <si>
-    <t>源水箱低水位</t>
-  </si>
-  <si>
-    <t>源水箱高水位</t>
-  </si>
-  <si>
-    <t>气泵压力低</t>
-  </si>
-  <si>
-    <t>排空活性炭过滤器压力高</t>
-  </si>
-  <si>
-    <t>排空PP过滤器压力高</t>
-  </si>
-  <si>
-    <t>排空冷冻水板换压力高</t>
-  </si>
-  <si>
-    <t>沉淀杯堵塞</t>
-  </si>
-  <si>
-    <t>循环PP过滤器压力高</t>
-  </si>
-  <si>
-    <t>收集PP过滤器压力高</t>
-  </si>
-  <si>
-    <t>储水罐压力高</t>
-  </si>
-  <si>
-    <t>储水罐压力低</t>
-  </si>
-  <si>
-    <t>压力波动异常</t>
-  </si>
-  <si>
-    <t>1717.0</t>
+    <t>1721.1</t>
+  </si>
+  <si>
+    <t>1721.2</t>
+  </si>
+  <si>
+    <t>1721.3</t>
+  </si>
+  <si>
+    <t>1721.4</t>
+  </si>
+  <si>
+    <t>1721.5</t>
+  </si>
+  <si>
+    <t>1721.6</t>
+  </si>
+  <si>
+    <t>1721.7</t>
+  </si>
+  <si>
+    <t>1721.8</t>
+  </si>
+  <si>
+    <t>1721.9</t>
+  </si>
+  <si>
+    <t>1718.A</t>
+  </si>
+  <si>
+    <t>1718.B</t>
+  </si>
+  <si>
+    <t>1718.C</t>
+  </si>
+  <si>
+    <t>1718.D</t>
+  </si>
+  <si>
+    <t>1718.E</t>
+  </si>
+  <si>
+    <t>1718.F</t>
+  </si>
+  <si>
+    <t>1719.A</t>
+  </si>
+  <si>
+    <t>1719.B</t>
+  </si>
+  <si>
+    <t>1719.C</t>
+  </si>
+  <si>
+    <t>1719.D</t>
+  </si>
+  <si>
+    <t>1719.E</t>
+  </si>
+  <si>
+    <t>1719.F</t>
+  </si>
+  <si>
+    <t>1720.A</t>
+  </si>
+  <si>
+    <t>1720.B</t>
+  </si>
+  <si>
+    <t>1720.C</t>
+  </si>
+  <si>
+    <t>1720.D</t>
+  </si>
+  <si>
+    <t>1720.E</t>
+  </si>
+  <si>
+    <t>ACL_bit_EVR_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_EVR_LO</t>
+  </si>
+  <si>
+    <t>ACL_bit_MBM_COM_LOSS</t>
+  </si>
+  <si>
+    <t>ACL_bit_AI_NTC</t>
+  </si>
+  <si>
+    <t>ACL_bit_REV01</t>
+  </si>
+  <si>
+    <t>ACL_bit_REV02</t>
+  </si>
+  <si>
+    <t>ACL_bit_FAN01_OD</t>
+  </si>
+  <si>
+    <t>ACL_bit_FAN01_OT</t>
+  </si>
+  <si>
+    <t>ACL_bit_FAN02_OD</t>
+  </si>
+  <si>
+    <t>ACL_bit_FAN02_OT</t>
+  </si>
+  <si>
+    <t>ACL_bit_REV03</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS01_PRESS_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS01_PRESS_LO</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS01_PRESS_LO_LOCK</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS01_EXHAUST_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS01_EXHAUST_HI_LOCK</t>
+  </si>
+  <si>
+    <t>ACL_bit_COMP01_OT</t>
+  </si>
+  <si>
+    <t>ACL_bit_INV01_FAULT</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS01_EEV1</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS01_EEV2</t>
+  </si>
+  <si>
+    <t>ACL_bit_REV05</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_PRESS_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_PRESS_LO</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_PRESS_LO_LOCK</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_EXHAUST_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_EXHAUST_HI_LOCK</t>
+  </si>
+  <si>
+    <t>ACL_bit_COMP02_OT</t>
+  </si>
+  <si>
+    <t>ACL_bit_INV02_FAULT</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_EEV1</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_EEV2</t>
+  </si>
+  <si>
+    <t>ACL_bit_REV07</t>
+  </si>
+  <si>
+    <t>ACL_bit_REV08</t>
+  </si>
+  <si>
+    <t>ACL_bit_AIR_LOSS</t>
+  </si>
+  <si>
+    <t>ACL_bit_FILTER_CLOG</t>
+  </si>
+  <si>
+    <t>ACL_bit_FILTER_OT</t>
+  </si>
+  <si>
+    <t>ACL_bit_WATER_LEAK</t>
+  </si>
+  <si>
+    <t>ACL_bit_LOCK_OPEN</t>
+  </si>
+  <si>
+    <t>ACL_bit_WATER_FOLW</t>
+  </si>
+  <si>
+    <t>ACL_bit_LIGHT_ARRESTER</t>
+  </si>
+  <si>
+    <t>ACL_bit_PHASE_ERR</t>
+  </si>
+  <si>
+    <t>ACL_bit_REV09</t>
+  </si>
+  <si>
+    <t>ACL_bit_REV10</t>
+  </si>
+  <si>
+    <t>ACL_bit_ELEMENT_01</t>
+  </si>
+  <si>
+    <t>ACL_bit_CIRCLE_CLEAN_ERR</t>
+  </si>
+  <si>
+    <t>ACL_bit_CIRCLE_PUMP_ERR</t>
+  </si>
+  <si>
+    <t>ACL_bit_AIR_PUMP_ERR</t>
+  </si>
+  <si>
+    <t>ACL_bit_UV_ERR</t>
+  </si>
+  <si>
+    <t>ACL_bit_SL_OT</t>
+  </si>
+  <si>
+    <t>ACL_bit_SU_OT</t>
+  </si>
+  <si>
+    <t>ACL_bit_AIR_PRESS_LO</t>
+  </si>
+  <si>
+    <t>ACL_bit_CF_PRESS_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_PP_STORAGE_PRESS_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_CB_PRESS_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_SC_CLOG</t>
+  </si>
+  <si>
+    <t>ACL_bit_PP_CIRCLE_PRESS_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_PP_COLLECT_PRESS_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_STORAGE_TANK_PRESS_HI</t>
+  </si>
+  <si>
+    <t>ACL_bit_STORAGE_TANK_PRESS_LO</t>
+  </si>
+  <si>
+    <t>ACL_bit_PRESS_FLUCTUATION</t>
+  </si>
+  <si>
+    <t>A00 环境高温</t>
+  </si>
+  <si>
+    <t>A01 环境低温</t>
+  </si>
+  <si>
+    <t>A02 内部通信</t>
+  </si>
+  <si>
+    <t>A03 NTC温度传感器</t>
+  </si>
+  <si>
+    <t>A04 保留1</t>
+  </si>
+  <si>
+    <t>A05 保留2</t>
+  </si>
+  <si>
+    <t>A06 风机1故障</t>
+  </si>
+  <si>
+    <t>A07 风机1超时</t>
+  </si>
+  <si>
+    <t>A08 风机2故障</t>
+  </si>
+  <si>
+    <t>A09 风机2超时</t>
+  </si>
+  <si>
+    <t>A10 保留3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A11 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩机超范围</t>
+    </r>
+  </si>
+  <si>
+    <t>A12 系统1高压</t>
+  </si>
+  <si>
+    <t>A14 系统1低压</t>
+  </si>
+  <si>
+    <t>A15 系统1低压锁死</t>
+  </si>
+  <si>
+    <t>A16 系统1排气高温</t>
+  </si>
+  <si>
+    <t>A17 系统1排气高温锁死</t>
+  </si>
+  <si>
+    <t>A18 压机1超时</t>
+  </si>
+  <si>
+    <t>A19 变频器1故障</t>
+  </si>
+  <si>
+    <t>A20 系统1EEV1故障</t>
+  </si>
+  <si>
+    <t>A21 系统1EEV2故障</t>
+  </si>
+  <si>
+    <t>A22 保留5</t>
+  </si>
+  <si>
+    <t>A24 系统2高压</t>
+  </si>
+  <si>
+    <t>A26 系统2低压</t>
+  </si>
+  <si>
+    <t>A27 系统2低压锁死</t>
+  </si>
+  <si>
+    <t>A28 系统2排气高温</t>
+  </si>
+  <si>
+    <t>A29 系统2排气高温锁死</t>
+  </si>
+  <si>
+    <t>A30 压机2超时</t>
+  </si>
+  <si>
+    <t>A31 变频器2故障</t>
+  </si>
+  <si>
+    <t>A32 系统2EEV1故障</t>
+  </si>
+  <si>
+    <t>A33 系统2EEV2故障</t>
+  </si>
+  <si>
+    <t>A34 保留7</t>
+  </si>
+  <si>
+    <t>A35 保留8</t>
+  </si>
+  <si>
+    <t>A36 气流丢失</t>
+  </si>
+  <si>
+    <t>A37 滤网堵塞</t>
+  </si>
+  <si>
+    <t>A38 滤网超时</t>
+  </si>
+  <si>
+    <t>A39 漏水告警</t>
+  </si>
+  <si>
+    <t>A40 门锁打开</t>
+  </si>
+  <si>
+    <t>A41 流量开关</t>
+  </si>
+  <si>
+    <t>A42 避雷器</t>
+  </si>
+  <si>
+    <t>A43 相序错</t>
+  </si>
+  <si>
+    <t>A44 保留9</t>
+  </si>
+  <si>
+    <t>A45 保留10</t>
+  </si>
+  <si>
+    <t>A46 更换滤芯1</t>
+  </si>
+  <si>
+    <t>A47 循环清洁未完成</t>
+  </si>
+  <si>
+    <t>A48 循环泵故障</t>
+  </si>
+  <si>
+    <t>A49 气泵故障</t>
+  </si>
+  <si>
+    <t>A50 UV故障</t>
+  </si>
+  <si>
+    <t>A51 源水箱低水位</t>
+  </si>
+  <si>
+    <t>A52 源水箱高水位</t>
+  </si>
+  <si>
+    <t>A53 气泵压力低</t>
+  </si>
+  <si>
+    <t>A54 排空活性炭过滤器压力高</t>
+  </si>
+  <si>
+    <t>A55 排空PP过滤器压力高</t>
+  </si>
+  <si>
+    <t>A56 排空冷冻水板换压力高</t>
+  </si>
+  <si>
+    <t>A57 沉淀杯堵塞</t>
+  </si>
+  <si>
+    <t>A58 循环PP过滤器压力高</t>
+  </si>
+  <si>
+    <t>A59 收集PP过滤器压力高</t>
+  </si>
+  <si>
+    <t>A60 储水罐压力高</t>
+  </si>
+  <si>
+    <t>A61 储水罐压力低</t>
+  </si>
+  <si>
+    <t>A62 压力波动异常</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A13 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩比</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A23 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩机超范围</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A25 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF657B83"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩比</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1717.1</t>
-  </si>
-  <si>
-    <t>1717.2</t>
-  </si>
-  <si>
-    <t>1717.3</t>
-  </si>
-  <si>
-    <t>1717.4</t>
-  </si>
-  <si>
-    <t>1717.5</t>
-  </si>
-  <si>
-    <t>1717.6</t>
-  </si>
-  <si>
-    <t>1717.7</t>
-  </si>
-  <si>
-    <t>1717.8</t>
-  </si>
-  <si>
-    <t>1717.9</t>
-  </si>
-  <si>
-    <t>1717.A</t>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1721.C</t>
+  </si>
+  <si>
+    <t>1721.D</t>
+  </si>
+  <si>
+    <t>1721.E</t>
+  </si>
+  <si>
+    <t>1721.A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1721.B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1720.F</t>
+  </si>
+  <si>
+    <t>1720.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1719.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1718.0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1718.1</t>
-  </si>
-  <si>
-    <t>1718.2</t>
-  </si>
-  <si>
-    <t>1718.3</t>
-  </si>
-  <si>
-    <t>1718.4</t>
-  </si>
-  <si>
-    <t>1718.5</t>
-  </si>
-  <si>
-    <t>1718.6</t>
-  </si>
-  <si>
-    <t>1718.7</t>
-  </si>
-  <si>
-    <t>1718.8</t>
-  </si>
-  <si>
-    <t>1718.9</t>
-  </si>
-  <si>
-    <t>1719.0</t>
+    <t>ACL_bit_SYS01_COMP_OUT</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS01_HI_LO</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_COMP_OUT</t>
+  </si>
+  <si>
+    <t>ACL_bit_SYS02_HI_LO</t>
+  </si>
+  <si>
+    <t>DO 沉淀滤芯电磁阀</t>
+  </si>
+  <si>
+    <t>DO 活性炭滤芯电磁阀</t>
+  </si>
+  <si>
+    <t>DO 饮水箱进水</t>
+  </si>
+  <si>
+    <t>DO 循环支路</t>
+  </si>
+  <si>
+    <t>DO 沉淀杯清洗</t>
+  </si>
+  <si>
+    <t>DO 膨胀水箱</t>
+  </si>
+  <si>
+    <t>DO_COLD_EV_BPOS</t>
+  </si>
+  <si>
+    <t>DO 冰水阀</t>
+  </si>
+  <si>
+    <t>DO 循环泵</t>
+  </si>
+  <si>
+    <t>DO 气泵</t>
+  </si>
+  <si>
+    <t>DO UV</t>
+  </si>
+  <si>
+    <t>DO 压机1启动</t>
+  </si>
+  <si>
+    <t>DO 压机2</t>
+  </si>
+  <si>
+    <t>DO_HOTBYPASS1_BPOS</t>
+  </si>
+  <si>
+    <t>DO 热气旁通</t>
+  </si>
+  <si>
+    <t>DO_HOTBYPASS2_BPOS</t>
+  </si>
+  <si>
+    <t>DO 热气旁通2</t>
+  </si>
+  <si>
+    <t>DO 转轮</t>
+  </si>
+  <si>
+    <t>DO 转轮电加热</t>
+  </si>
+  <si>
+    <t>DO 常温水</t>
+  </si>
+  <si>
+    <t>DO 冰水</t>
+  </si>
+  <si>
+    <t>DO 预留1</t>
+  </si>
+  <si>
+    <t>DO 预留</t>
+  </si>
+  <si>
+    <t>DO 绿灯</t>
+  </si>
+  <si>
+    <t>DO 红灯</t>
+  </si>
+  <si>
+    <t>DO 橙灯</t>
+  </si>
+  <si>
+    <t>DO 预留2</t>
+  </si>
+  <si>
+    <t>DO 预留5</t>
+  </si>
+  <si>
+    <t>DO 预留6</t>
+  </si>
+  <si>
+    <t>DO 预留7</t>
+  </si>
+  <si>
+    <t>DO 预留8</t>
+  </si>
+  <si>
+    <t>1757.0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1719.1</t>
-  </si>
-  <si>
-    <t>1719.2</t>
-  </si>
-  <si>
-    <t>1719.3</t>
-  </si>
-  <si>
-    <t>1719.4</t>
-  </si>
-  <si>
-    <t>1719.5</t>
-  </si>
-  <si>
-    <t>1719.6</t>
-  </si>
-  <si>
-    <t>1719.7</t>
-  </si>
-  <si>
-    <t>1719.8</t>
-  </si>
-  <si>
-    <t>1719.9</t>
-  </si>
-  <si>
-    <t>1721.0</t>
+    <t>1757.1</t>
+  </si>
+  <si>
+    <t>1757.2</t>
+  </si>
+  <si>
+    <t>1757.3</t>
+  </si>
+  <si>
+    <t>1757.4</t>
+  </si>
+  <si>
+    <t>1757.5</t>
+  </si>
+  <si>
+    <t>1757.6</t>
+  </si>
+  <si>
+    <t>1757.7</t>
+  </si>
+  <si>
+    <t>1757.8</t>
+  </si>
+  <si>
+    <t>1757.9</t>
+  </si>
+  <si>
+    <t>1757.A</t>
+  </si>
+  <si>
+    <t>1757.B</t>
+  </si>
+  <si>
+    <t>1757.C</t>
+  </si>
+  <si>
+    <t>1757.D</t>
+  </si>
+  <si>
+    <t>1757.E</t>
+  </si>
+  <si>
+    <t>1757.F</t>
+  </si>
+  <si>
+    <t>1758.A</t>
+  </si>
+  <si>
+    <t>1758.B</t>
+  </si>
+  <si>
+    <t>1758.C</t>
+  </si>
+  <si>
+    <t>1758.D</t>
+  </si>
+  <si>
+    <t>1758.E</t>
+  </si>
+  <si>
+    <t>1758.F</t>
+  </si>
+  <si>
+    <t>1758.0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1721.1</t>
-  </si>
-  <si>
-    <t>1721.2</t>
-  </si>
-  <si>
-    <t>1721.3</t>
-  </si>
-  <si>
-    <t>1721.4</t>
-  </si>
-  <si>
-    <t>1721.5</t>
-  </si>
-  <si>
-    <t>1721.6</t>
-  </si>
-  <si>
-    <t>1721.7</t>
-  </si>
-  <si>
-    <t>1721.8</t>
-  </si>
-  <si>
-    <t>1721.9</t>
-  </si>
-  <si>
-    <t>1717.B</t>
-  </si>
-  <si>
-    <t>1717.C</t>
-  </si>
-  <si>
-    <t>1717.D</t>
-  </si>
-  <si>
-    <t>1717.E</t>
-  </si>
-  <si>
-    <t>1717.F</t>
-  </si>
-  <si>
-    <t>1718.A</t>
-  </si>
-  <si>
-    <t>1718.B</t>
-  </si>
-  <si>
-    <t>1718.C</t>
-  </si>
-  <si>
-    <t>1718.D</t>
-  </si>
-  <si>
-    <t>1718.E</t>
-  </si>
-  <si>
-    <t>1718.F</t>
-  </si>
-  <si>
-    <t>1719.A</t>
-  </si>
-  <si>
-    <t>1719.B</t>
-  </si>
-  <si>
-    <t>1719.C</t>
-  </si>
-  <si>
-    <t>1719.D</t>
-  </si>
-  <si>
-    <t>1719.E</t>
-  </si>
-  <si>
-    <t>1719.F</t>
-  </si>
-  <si>
-    <t>1720.A</t>
-  </si>
-  <si>
-    <t>1720.B</t>
-  </si>
-  <si>
-    <t>1720.C</t>
-  </si>
-  <si>
-    <t>1720.D</t>
-  </si>
-  <si>
-    <t>1720.E</t>
-  </si>
-  <si>
-    <t>ACL_bit_EVR_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_EVR_LO</t>
-  </si>
-  <si>
-    <t>ACL_bit_MBM_COM_LOSS</t>
-  </si>
-  <si>
-    <t>ACL_bit_AI_NTC</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV01</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV02</t>
-  </si>
-  <si>
-    <t>ACL_bit_FAN01_OD</t>
-  </si>
-  <si>
-    <t>ACL_bit_FAN01_OT</t>
-  </si>
-  <si>
-    <t>ACL_bit_FAN02_OD</t>
-  </si>
-  <si>
-    <t>ACL_bit_FAN02_OT</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV03</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV04</t>
+    <t>Cache_state_DO_SF_EV_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_CF_EV_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_DTI_EV_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_CIRCLE_EV_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_SC_EV_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_ET_EV_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_COLD_EV_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_CIRCLE_PUMP_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_AIR_PUMP_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_UV_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_COMP1_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_COMP2_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_HOTBYPASS1_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_HOTBYPASS2_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_RELL_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_RELL_HEAT_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_NORMAL_WATER_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_COLD_WATER_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_RSV_BPOS_1</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_SYS1_EEV1_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_SYS1_EEV2_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_SYS2_EEV1_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_SYS2_EEV2_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_LED_GREEN_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_LED_RED_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_LED_ORANGE_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_RSV_BPOS_2</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_ALARM_BPOS</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_RSV_BPOS_5</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_RSV_BPOS_6</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_RSV_BPOS_7</t>
+  </si>
+  <si>
+    <t>Cache_state_DO_RSV_BPOS_8</t>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_ALARM_STUSE_BPOS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ACL_bit_SYS01_PRESS_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS01_PRESS_HI_LOCK</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS01_PRESS_LO</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS01_PRESS_LO_LOCK</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS01_EXHAUST_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS01_EXHAUST_HI_LOCK</t>
-  </si>
-  <si>
-    <t>ACL_bit_COMP01_OT</t>
-  </si>
-  <si>
-    <t>ACL_bit_INV01_FAULT</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS01_EEV1</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS01_EEV2</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV05</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV06</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS02_PRESS_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS02_PRESS_HI_LOCK</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS02_PRESS_LO</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS02_PRESS_LO_LOCK</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS02_EXHAUST_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS02_EXHAUST_HI_LOCK</t>
-  </si>
-  <si>
-    <t>ACL_bit_COMP02_OT</t>
-  </si>
-  <si>
-    <t>ACL_bit_INV02_FAULT</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS02_EEV1</t>
-  </si>
-  <si>
-    <t>ACL_bit_SYS02_EEV2</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV07</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV08</t>
-  </si>
-  <si>
-    <t>ACL_bit_AIR_LOSS</t>
-  </si>
-  <si>
-    <t>ACL_bit_FILTER_CLOG</t>
-  </si>
-  <si>
-    <t>ACL_bit_FILTER_OT</t>
-  </si>
-  <si>
-    <t>ACL_bit_WATER_LEAK</t>
-  </si>
-  <si>
-    <t>ACL_bit_LOCK_OPEN</t>
-  </si>
-  <si>
-    <t>ACL_bit_WATER_FOLW</t>
-  </si>
-  <si>
-    <t>ACL_bit_LIGHT_ARRESTER</t>
-  </si>
-  <si>
-    <t>ACL_bit_PHASE_ERR</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV09</t>
-  </si>
-  <si>
-    <t>ACL_bit_REV10</t>
-  </si>
-  <si>
-    <t>ACL_bit_ELEMENT_01</t>
-  </si>
-  <si>
-    <t>ACL_bit_CIRCLE_CLEAN_ERR</t>
-  </si>
-  <si>
-    <t>ACL_bit_CIRCLE_PUMP_ERR</t>
-  </si>
-  <si>
-    <t>ACL_bit_AIR_PUMP_ERR</t>
-  </si>
-  <si>
-    <t>ACL_bit_UV_ERR</t>
-  </si>
-  <si>
-    <t>ACL_bit_SL_OT</t>
-  </si>
-  <si>
-    <t>ACL_bit_SU_OT</t>
-  </si>
-  <si>
-    <t>ACL_bit_AIR_PRESS_LO</t>
-  </si>
-  <si>
-    <t>ACL_bit_CF_PRESS_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_PP_STORAGE_PRESS_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_CB_PRESS_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_SC_CLOG</t>
-  </si>
-  <si>
-    <t>ACL_bit_PP_CIRCLE_PRESS_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_PP_COLLECT_PRESS_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_STORAGE_TANK_PRESS_HI</t>
-  </si>
-  <si>
-    <t>ACL_bit_STORAGE_TANK_PRESS_LO</t>
-  </si>
-  <si>
-    <t>ACL_bit_PRESS_FLUCTUATION</t>
+    <t>Cache_WORK_MODE_ALARM_BEEP_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1713.A</t>
+  </si>
+  <si>
+    <t>1713.B</t>
+  </si>
+  <si>
+    <t>1713.C</t>
+  </si>
+  <si>
+    <t>1713.D</t>
+  </si>
+  <si>
+    <t>1713.E</t>
+  </si>
+  <si>
+    <t>1713.F</t>
+  </si>
+  <si>
+    <t>1713.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_PWR_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_FAN_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_COOLING_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_PROWATER_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_OUTWATER_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_STERILIZE_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_DEFROST1_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_DEFROST2_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_HEATING_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_EXITWATER_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_NET_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_STORAGE_STS_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_WORK_MODE_D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1359,27 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF268BD2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF657B83"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF657B83"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1440,11 +1807,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1802,15 +2175,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A99"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1849,6 +2224,9 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
+      <c r="J2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1931,7 +2309,7 @@
         <v>249</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1943,12 +2321,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1975,12 +2353,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2007,12 +2385,12 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2039,12 +2417,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2071,12 +2449,12 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2103,12 +2481,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2135,12 +2513,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2167,12 +2545,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2199,12 +2577,12 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2231,12 +2609,12 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2251,7 +2629,7 @@
         <v>249</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2263,12 +2641,12 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2283,7 +2661,7 @@
         <v>249</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2295,12 +2673,12 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2315,7 +2693,7 @@
         <v>249</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2327,12 +2705,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2347,7 +2725,7 @@
         <v>249</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2359,12 +2737,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2379,7 +2757,7 @@
         <v>249</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2391,12 +2769,12 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2411,7 +2789,7 @@
         <v>249</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2423,12 +2801,12 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2443,7 +2821,7 @@
         <v>249</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2455,12 +2833,12 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2487,12 +2865,12 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2519,12 +2897,12 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2551,12 +2929,12 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2583,12 +2961,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2615,12 +2993,12 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2647,12 +3025,12 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2679,12 +3057,12 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2711,12 +3089,12 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2743,12 +3121,12 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2763,7 +3141,7 @@
         <v>249</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2775,12 +3153,12 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2795,7 +3173,7 @@
         <v>249</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2807,12 +3185,12 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2827,7 +3205,7 @@
         <v>249</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2839,12 +3217,12 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2859,7 +3237,7 @@
         <v>249</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2871,12 +3249,12 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2891,7 +3269,7 @@
         <v>249</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2903,12 +3281,12 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2923,7 +3301,7 @@
         <v>249</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2935,12 +3313,12 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2955,7 +3333,7 @@
         <v>249</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>141</v>
+        <v>315</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2967,12 +3345,12 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2986,8 +3364,8 @@
       <c r="E38">
         <v>249</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>142</v>
+      <c r="F38" s="1">
+        <v>1713.1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2999,12 +3377,12 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3018,8 +3396,8 @@
       <c r="E39">
         <v>249</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>143</v>
+      <c r="F39" s="1">
+        <v>1713.2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3031,12 +3409,12 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3050,25 +3428,25 @@
       <c r="E40">
         <v>249</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="1">
+        <v>1713.3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
         <v>144</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3082,8 +3460,8 @@
       <c r="E41">
         <v>249</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>145</v>
+      <c r="F41" s="1">
+        <v>1713.4</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3095,12 +3473,12 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3114,8 +3492,8 @@
       <c r="E42">
         <v>249</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>146</v>
+      <c r="F42" s="1">
+        <v>1713.5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3127,12 +3505,12 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3146,8 +3524,8 @@
       <c r="E43">
         <v>249</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>147</v>
+      <c r="F43" s="1">
+        <v>1713.6</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3159,12 +3537,12 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3178,8 +3556,8 @@
       <c r="E44">
         <v>249</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>148</v>
+      <c r="F44" s="1">
+        <v>1713.7</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3191,12 +3569,12 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3210,8 +3588,8 @@
       <c r="E45">
         <v>249</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>149</v>
+      <c r="F45" s="1">
+        <v>1713.8</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3223,12 +3601,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3242,8 +3620,8 @@
       <c r="E46">
         <v>249</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>150</v>
+      <c r="F46" s="1">
+        <v>1713.9</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3255,12 +3633,12 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3275,7 +3653,7 @@
         <v>249</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>151</v>
+        <v>309</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3287,12 +3665,12 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3307,7 +3685,7 @@
         <v>249</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3319,12 +3697,12 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3339,7 +3717,7 @@
         <v>249</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3351,12 +3729,12 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3371,7 +3749,7 @@
         <v>249</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3383,12 +3761,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3403,7 +3781,7 @@
         <v>249</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3415,12 +3793,12 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3435,7 +3813,7 @@
         <v>249</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3447,12 +3825,12 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3467,7 +3845,7 @@
         <v>249</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3479,12 +3857,12 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3498,8 +3876,8 @@
       <c r="E54">
         <v>249</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>153</v>
+      <c r="F54" s="1">
+        <v>1718.1</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3511,12 +3889,12 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3530,8 +3908,8 @@
       <c r="E55">
         <v>249</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>154</v>
+      <c r="F55" s="1">
+        <v>1718.2</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3543,12 +3921,12 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3562,8 +3940,8 @@
       <c r="E56">
         <v>249</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>155</v>
+      <c r="F56" s="1">
+        <v>1718.3</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3575,12 +3953,12 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3594,8 +3972,8 @@
       <c r="E57">
         <v>249</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>156</v>
+      <c r="F57" s="1">
+        <v>1718.4</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3607,12 +3985,12 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3626,8 +4004,8 @@
       <c r="E58">
         <v>249</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>157</v>
+      <c r="F58" s="1">
+        <v>1718.5</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3639,12 +4017,12 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3658,8 +4036,8 @@
       <c r="E59">
         <v>249</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>158</v>
+      <c r="F59" s="1">
+        <v>1718.6</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3671,12 +4049,12 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3690,8 +4068,8 @@
       <c r="E60">
         <v>249</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>159</v>
+      <c r="F60" s="1">
+        <v>1718.7</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3703,12 +4081,12 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3722,8 +4100,8 @@
       <c r="E61">
         <v>249</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>160</v>
+      <c r="F61" s="1">
+        <v>1718.8</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3735,12 +4113,12 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3754,8 +4132,8 @@
       <c r="E62">
         <v>249</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>161</v>
+      <c r="F62" s="1">
+        <v>1718.9</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3767,12 +4145,12 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3787,7 +4165,7 @@
         <v>249</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3799,12 +4177,12 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>231</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3819,7 +4197,7 @@
         <v>249</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3830,13 +4208,13 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>105</v>
+      <c r="J64" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3851,7 +4229,7 @@
         <v>249</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3863,12 +4241,12 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>233</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3883,7 +4261,7 @@
         <v>249</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3894,13 +4272,13 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>107</v>
+      <c r="J66" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3915,7 +4293,7 @@
         <v>249</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3927,12 +4305,12 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3947,7 +4325,7 @@
         <v>249</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3959,12 +4337,12 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3979,7 +4357,7 @@
         <v>249</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3991,12 +4369,12 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4010,8 +4388,8 @@
       <c r="E70">
         <v>249</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>163</v>
+      <c r="F70" s="1">
+        <v>1719.1</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4023,12 +4401,12 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4042,8 +4420,8 @@
       <c r="E71">
         <v>249</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>164</v>
+      <c r="F71" s="1">
+        <v>1719.2</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4055,12 +4433,12 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4074,8 +4452,8 @@
       <c r="E72">
         <v>249</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>165</v>
+      <c r="F72" s="1">
+        <v>1719.3</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4087,12 +4465,12 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4106,8 +4484,8 @@
       <c r="E73">
         <v>249</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>166</v>
+      <c r="F73" s="1">
+        <v>1719.4</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4119,12 +4497,12 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4138,8 +4516,8 @@
       <c r="E74">
         <v>249</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>167</v>
+      <c r="F74" s="1">
+        <v>1719.5</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4151,12 +4529,12 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4170,8 +4548,8 @@
       <c r="E75">
         <v>249</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>168</v>
+      <c r="F75" s="1">
+        <v>1719.6</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4183,12 +4561,12 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>243</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4202,8 +4580,8 @@
       <c r="E76">
         <v>249</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>169</v>
+      <c r="F76" s="1">
+        <v>1719.7</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4214,13 +4592,13 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" t="s">
-        <v>117</v>
+      <c r="J76" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4234,8 +4612,8 @@
       <c r="E77">
         <v>249</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>170</v>
+      <c r="F77" s="1">
+        <v>1719.8</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4247,12 +4625,12 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>245</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4266,8 +4644,8 @@
       <c r="E78">
         <v>249</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>171</v>
+      <c r="F78" s="1">
+        <v>1719.9</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4278,13 +4656,13 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>119</v>
+      <c r="J78" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4299,7 +4677,7 @@
         <v>249</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4311,12 +4689,12 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4331,7 +4709,7 @@
         <v>249</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -4343,12 +4721,12 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4363,7 +4741,7 @@
         <v>249</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4375,12 +4753,12 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4395,7 +4773,7 @@
         <v>249</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -4407,12 +4785,12 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4427,7 +4805,7 @@
         <v>249</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4439,12 +4817,12 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4459,7 +4837,7 @@
         <v>249</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4471,12 +4849,12 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4491,7 +4869,7 @@
         <v>249</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4503,12 +4881,12 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4522,8 +4900,8 @@
       <c r="E86">
         <v>249</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>173</v>
+      <c r="F86" s="1">
+        <v>1720.1</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4535,12 +4913,12 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4554,8 +4932,8 @@
       <c r="E87">
         <v>249</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>174</v>
+      <c r="F87" s="1">
+        <v>1720.2</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4567,12 +4945,12 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4586,8 +4964,8 @@
       <c r="E88">
         <v>249</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>175</v>
+      <c r="F88" s="1">
+        <v>1720.3</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4599,12 +4977,12 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4618,8 +4996,8 @@
       <c r="E89">
         <v>249</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>176</v>
+      <c r="F89" s="1">
+        <v>1720.4</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4631,12 +5009,12 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4650,8 +5028,8 @@
       <c r="E90">
         <v>249</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>177</v>
+      <c r="F90" s="1">
+        <v>1720.5</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4663,12 +5041,12 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4682,8 +5060,8 @@
       <c r="E91">
         <v>249</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>178</v>
+      <c r="F91" s="1">
+        <v>1720.6</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4695,12 +5073,12 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4714,8 +5092,8 @@
       <c r="E92">
         <v>249</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>179</v>
+      <c r="F92" s="1">
+        <v>1720.7</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4727,12 +5105,12 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4746,8 +5124,8 @@
       <c r="E93">
         <v>249</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>180</v>
+      <c r="F93" s="1">
+        <v>1720.8</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4759,12 +5137,12 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4778,8 +5156,8 @@
       <c r="E94">
         <v>249</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>181</v>
+      <c r="F94" s="1">
+        <v>1720.9</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4791,12 +5169,12 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4811,7 +5189,7 @@
         <v>249</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4823,12 +5201,12 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4843,7 +5221,7 @@
         <v>249</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4855,12 +5233,12 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4875,7 +5253,7 @@
         <v>249</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4887,12 +5265,12 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4907,7 +5285,7 @@
         <v>249</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4919,39 +5297,1575 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>249</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>249</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>249</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>249</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>249</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>249</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>249</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>249</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>249</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>249</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>249</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>249</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>249</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>249</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>249</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>249</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>249</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>249</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>249</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>249</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>278</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>249</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>249</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>249</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>249</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>282</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>249</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>249</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>249</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>249</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>249</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>249</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>249</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>289</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>249</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>249</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>140</v>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>290</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>249</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>291</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>249</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>292</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>249</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1758.1</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>293</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>249</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1758.2</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>249</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1758.3</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>249</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1758.4</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>296</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>249</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1758.5</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>249</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1758.6</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>249</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1758.7</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>249</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1758.8</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>249</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1758.9</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>301</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>249</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>249</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>303</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>249</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>304</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>249</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>305</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>249</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>249</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/AddrTag-LW.B.xlsx
+++ b/AddrTag-LW.B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCloud\TQWorking\Cheetah600\Cheetah600_LCD\Cheetah600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A1864D-5B7A-4701-B994-9C11C52BB4EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716FDA70-D7EC-496E-B113-B15023907F23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="333">
   <si>
     <t>AddrTag Lib</t>
   </si>
@@ -676,18 +676,6 @@
   </si>
   <si>
     <t>A58 循环PP过滤器压力高</t>
-  </si>
-  <si>
-    <t>A59 收集PP过滤器压力高</t>
-  </si>
-  <si>
-    <t>A60 储水罐压力高</t>
-  </si>
-  <si>
-    <t>A61 储水罐压力低</t>
-  </si>
-  <si>
-    <t>A62 压力波动异常</t>
   </si>
   <si>
     <r>
@@ -806,15 +794,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1721.C</t>
-  </si>
-  <si>
-    <t>1721.D</t>
-  </si>
-  <si>
-    <t>1721.E</t>
-  </si>
-  <si>
     <t>1721.A</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1056,9 +1035,6 @@
     <t>Cache_state_DO_HOTBYPASS2_BPOS</t>
   </si>
   <si>
-    <t>Cache_state_DO_RELL_BPOS</t>
-  </si>
-  <si>
     <t>Cache_state_DO_RELL_HEAT_BPOS</t>
   </si>
   <si>
@@ -1118,28 +1094,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1713.A</t>
-  </si>
-  <si>
-    <t>1713.B</t>
-  </si>
-  <si>
-    <t>1713.C</t>
-  </si>
-  <si>
-    <t>1713.D</t>
-  </si>
-  <si>
-    <t>1713.E</t>
-  </si>
-  <si>
-    <t>1713.F</t>
-  </si>
-  <si>
-    <t>1713.0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Cache_WORK_MODE_PWR_STS_BPOS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1194,6 +1148,67 @@
   <si>
     <t>Cache_WORK_MODE_D</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1714.A</t>
+  </si>
+  <si>
+    <t>1714.B</t>
+  </si>
+  <si>
+    <t>1714.C</t>
+  </si>
+  <si>
+    <t>1714.D</t>
+  </si>
+  <si>
+    <t>1714.E</t>
+  </si>
+  <si>
+    <t>1714.F</t>
+  </si>
+  <si>
+    <t>1714.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_state_DO_RELL_BPOS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL_bit_PP_COLLECT_PRESS_LOW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1721.C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1721.D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1721.E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1721.F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A59 收集PP过滤器压力低</t>
+  </si>
+  <si>
+    <t>A60 收集PP过滤器压力高</t>
+  </si>
+  <si>
+    <t>A61 储水罐压力高</t>
+  </si>
+  <si>
+    <t>A62 储水罐压力低</t>
+  </si>
+  <si>
+    <t>A63 压力波动异常</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1675,6 +1690,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,7 +1852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1818,6 +1863,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2175,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112:J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2321,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2353,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2385,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2417,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2449,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2481,12 +2532,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2513,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2545,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2577,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2609,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2641,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2673,12 +2724,12 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2705,12 +2756,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2737,12 +2788,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2769,12 +2820,12 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2801,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2833,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2865,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2897,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2929,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2961,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2993,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3025,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3057,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3089,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3121,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3153,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3185,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3217,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3249,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3281,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -3313,12 +3364,12 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3333,7 +3384,7 @@
         <v>249</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3350,7 +3401,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3365,7 +3416,7 @@
         <v>249</v>
       </c>
       <c r="F38" s="1">
-        <v>1713.1</v>
+        <v>1714.1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3382,7 +3433,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3397,7 +3448,7 @@
         <v>249</v>
       </c>
       <c r="F39" s="1">
-        <v>1713.2</v>
+        <v>1714.2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3414,7 +3465,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3429,7 +3480,7 @@
         <v>249</v>
       </c>
       <c r="F40" s="1">
-        <v>1713.3</v>
+        <v>1714.3</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3446,7 +3497,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3461,7 +3512,7 @@
         <v>249</v>
       </c>
       <c r="F41" s="1">
-        <v>1713.4</v>
+        <v>1714.4</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3478,7 +3529,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3493,7 +3544,7 @@
         <v>249</v>
       </c>
       <c r="F42" s="1">
-        <v>1713.5</v>
+        <v>1714.5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3510,7 +3561,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3525,7 +3576,7 @@
         <v>249</v>
       </c>
       <c r="F43" s="1">
-        <v>1713.6</v>
+        <v>1714.6</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3542,7 +3593,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3557,7 +3608,7 @@
         <v>249</v>
       </c>
       <c r="F44" s="1">
-        <v>1713.7</v>
+        <v>1714.7</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3574,7 +3625,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3589,7 +3640,7 @@
         <v>249</v>
       </c>
       <c r="F45" s="1">
-        <v>1713.8</v>
+        <v>1714.8</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3606,7 +3657,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3621,7 +3672,7 @@
         <v>249</v>
       </c>
       <c r="F46" s="1">
-        <v>1713.9</v>
+        <v>1714.9</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3638,7 +3689,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3653,7 +3704,7 @@
         <v>249</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3670,7 +3721,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3685,7 +3736,7 @@
         <v>249</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3702,7 +3753,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3717,7 +3768,7 @@
         <v>249</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3734,7 +3785,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3749,7 +3800,7 @@
         <v>249</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3766,7 +3817,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3781,7 +3832,7 @@
         <v>249</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3798,7 +3849,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3813,7 +3864,7 @@
         <v>249</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3845,7 +3896,7 @@
         <v>249</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4182,7 +4233,7 @@
     </row>
     <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4246,7 +4297,7 @@
     </row>
     <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4273,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -4357,7 +4408,7 @@
         <v>249</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4566,7 +4617,7 @@
     </row>
     <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4593,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -4630,7 +4681,7 @@
     </row>
     <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4657,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -4869,7 +4920,7 @@
         <v>249</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5349,7 +5400,7 @@
         <v>249</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5701,7 +5752,7 @@
         <v>249</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5718,7 +5769,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5733,7 +5784,7 @@
         <v>249</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -5744,13 +5795,13 @@
       <c r="I112">
         <v>0</v>
       </c>
-      <c r="J112" t="s">
-        <v>200</v>
+      <c r="J112" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5765,7 +5816,7 @@
         <v>249</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5776,13 +5827,13 @@
       <c r="I113">
         <v>0</v>
       </c>
-      <c r="J113" t="s">
-        <v>201</v>
+      <c r="J113" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5797,7 +5848,7 @@
         <v>249</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -5808,46 +5859,46 @@
       <c r="I114">
         <v>0</v>
       </c>
-      <c r="J114" t="s">
-        <v>202</v>
+      <c r="J114" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>249</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>143</v>
       </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>249</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>275</v>
-      </c>
       <c r="B116">
         <v>0</v>
       </c>
@@ -5861,7 +5912,7 @@
         <v>249</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5872,13 +5923,13 @@
       <c r="I116">
         <v>0</v>
       </c>
-      <c r="J116" t="s">
-        <v>221</v>
+      <c r="J116" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5893,7 +5944,7 @@
         <v>249</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -5905,12 +5956,12 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5925,7 +5976,7 @@
         <v>249</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -5937,12 +5988,12 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5957,7 +6008,7 @@
         <v>249</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -5969,12 +6020,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5989,7 +6040,7 @@
         <v>249</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6001,12 +6052,12 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6021,7 +6072,7 @@
         <v>249</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6033,12 +6084,12 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6053,7 +6104,7 @@
         <v>249</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6065,12 +6116,12 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6085,7 +6136,7 @@
         <v>249</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6097,12 +6148,12 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6117,7 +6168,7 @@
         <v>249</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6129,12 +6180,12 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6149,7 +6200,7 @@
         <v>249</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6161,12 +6212,12 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6181,7 +6232,7 @@
         <v>249</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6193,12 +6244,12 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6213,7 +6264,7 @@
         <v>249</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -6225,12 +6276,12 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6245,7 +6296,7 @@
         <v>249</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6257,12 +6308,12 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6277,7 +6328,7 @@
         <v>249</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6289,12 +6340,12 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6309,7 +6360,7 @@
         <v>249</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6321,12 +6372,12 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6341,7 +6392,7 @@
         <v>249</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6353,12 +6404,12 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6373,7 +6424,7 @@
         <v>249</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6385,12 +6436,12 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6404,8 +6455,8 @@
       <c r="E133">
         <v>249</v>
       </c>
-      <c r="F133" s="1">
-        <v>1758.1</v>
+      <c r="F133" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6417,12 +6468,12 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6437,7 +6488,7 @@
         <v>249</v>
       </c>
       <c r="F134" s="1">
-        <v>1758.2</v>
+        <v>1758.1</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6449,12 +6500,12 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6469,7 +6520,7 @@
         <v>249</v>
       </c>
       <c r="F135" s="1">
-        <v>1758.3</v>
+        <v>1758.2</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6481,12 +6532,12 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6501,7 +6552,7 @@
         <v>249</v>
       </c>
       <c r="F136" s="1">
-        <v>1758.4</v>
+        <v>1758.3</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6513,12 +6564,12 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6533,7 +6584,7 @@
         <v>249</v>
       </c>
       <c r="F137" s="1">
-        <v>1758.5</v>
+        <v>1758.4</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6545,12 +6596,12 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6565,7 +6616,7 @@
         <v>249</v>
       </c>
       <c r="F138" s="1">
-        <v>1758.6</v>
+        <v>1758.5</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -6577,12 +6628,12 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6597,7 +6648,7 @@
         <v>249</v>
       </c>
       <c r="F139" s="1">
-        <v>1758.7</v>
+        <v>1758.6</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6609,12 +6660,12 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6629,7 +6680,7 @@
         <v>249</v>
       </c>
       <c r="F140" s="1">
-        <v>1758.8</v>
+        <v>1758.7</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -6641,12 +6692,12 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6661,7 +6712,7 @@
         <v>249</v>
       </c>
       <c r="F141" s="1">
-        <v>1758.9</v>
+        <v>1758.8</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -6673,12 +6724,12 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6692,8 +6743,8 @@
       <c r="E142">
         <v>249</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>268</v>
+      <c r="F142" s="1">
+        <v>1758.9</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -6705,12 +6756,12 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6725,7 +6776,7 @@
         <v>249</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6737,12 +6788,12 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6757,7 +6808,7 @@
         <v>249</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -6769,12 +6820,12 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6789,7 +6840,7 @@
         <v>249</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -6801,12 +6852,12 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6821,7 +6872,7 @@
         <v>249</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6833,12 +6884,12 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6853,7 +6904,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6865,7 +6916,39 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>251</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>298</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>249</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/AddrTag-LW.B.xlsx
+++ b/AddrTag-LW.B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCloud\TQWorking\Cheetah600\Cheetah600_LCD\Cheetah600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716FDA70-D7EC-496E-B113-B15023907F23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D6B49A-BAEC-4301-AE2D-78A74CC32FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,10 +1176,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ACL_bit_PP_COLLECT_PRESS_LOW</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1721.C</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1196,9 +1192,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>A59 收集PP过滤器压力低</t>
-  </si>
-  <si>
     <t>A60 收集PP过滤器压力高</t>
   </si>
   <si>
@@ -1209,6 +1202,14 @@
   </si>
   <si>
     <t>A63 压力波动异常</t>
+  </si>
+  <si>
+    <t>A59 循环PP过滤器压力低</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL_bit_PP_CIRCLE_PRESS_LO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2229,7 +2230,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112:J116"/>
+      <selection activeCell="O114" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5769,7 +5770,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5796,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -5816,7 +5817,7 @@
         <v>249</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5828,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -5848,7 +5849,7 @@
         <v>249</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -5860,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -5880,7 +5881,7 @@
         <v>249</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5892,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5912,7 +5913,7 @@
         <v>249</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5924,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">

--- a/AddrTag-LW.B.xlsx
+++ b/AddrTag-LW.B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCloud\TQWorking\Cheetah600\Cheetah600_LCD\Cheetah600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D6B49A-BAEC-4301-AE2D-78A74CC32FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0EBC3A-0038-4E71-AFD9-47D12E0D22A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddrTag-LW.B1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="339">
   <si>
     <t>AddrTag Lib</t>
   </si>
@@ -422,9 +422,6 @@
     <t>ACL_bit_REV09</t>
   </si>
   <si>
-    <t>ACL_bit_REV10</t>
-  </si>
-  <si>
     <t>ACL_bit_ELEMENT_01</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
   </si>
   <si>
     <t>ACL_bit_UV_ERR</t>
-  </si>
-  <si>
-    <t>ACL_bit_SL_OT</t>
   </si>
   <si>
     <t>ACL_bit_SU_OT</t>
@@ -636,9 +630,6 @@
     <t>A44 保留9</t>
   </si>
   <si>
-    <t>A45 保留10</t>
-  </si>
-  <si>
     <t>A46 更换滤芯1</t>
   </si>
   <si>
@@ -652,9 +643,6 @@
   </si>
   <si>
     <t>A50 UV故障</t>
-  </si>
-  <si>
-    <t>A51 源水箱低水位</t>
   </si>
   <si>
     <t>A52 源水箱高水位</t>
@@ -986,9 +974,6 @@
     <t>1758.E</t>
   </si>
   <si>
-    <t>1758.F</t>
-  </si>
-  <si>
     <t>1758.0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1083,9 +1068,6 @@
     <t>Cache_state_DO_RSV_BPOS_7</t>
   </si>
   <si>
-    <t>Cache_state_DO_RSV_BPOS_8</t>
-  </si>
-  <si>
     <t>Cache_WORK_MODE_ALARM_STUSE_BPOS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1210,6 +1192,49 @@
   <si>
     <t>ACL_bit_PP_CIRCLE_PRESS_LO</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL_bit_DTS_ERR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A45 饮水箱传感器故障</t>
+  </si>
+  <si>
+    <t>A51 源水箱浮球故障</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL_bit_ST_ERR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_status_ComSta_Water_S_WLbit0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_status_ComSta_Water_S_WLbit1</t>
+  </si>
+  <si>
+    <t>1821.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1821.1</t>
+  </si>
+  <si>
+    <t>源水箱低浮球</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>源水箱高浮球</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache_status_ComSta_Water_S_WLbit2</t>
+  </si>
+  <si>
+    <t>1821.2</t>
   </si>
 </sst>
 </file>
@@ -2227,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="O114" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2277,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2373,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2405,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2437,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2469,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2501,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2533,12 +2558,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2565,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2597,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2629,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2661,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2693,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2725,12 +2750,12 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2757,12 +2782,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2789,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2821,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2853,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2885,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2917,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2949,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2981,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3013,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -3045,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3077,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3109,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3141,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3173,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3205,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3237,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3269,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3301,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3333,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -3365,12 +3390,12 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3385,7 +3410,7 @@
         <v>249</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3397,12 +3422,12 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3429,12 +3454,12 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3461,12 +3486,12 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3493,12 +3518,12 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3525,12 +3550,12 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3557,12 +3582,12 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3589,12 +3614,12 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3621,12 +3646,12 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3653,12 +3678,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3685,12 +3710,12 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3705,7 +3730,7 @@
         <v>249</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3717,12 +3742,12 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3737,7 +3762,7 @@
         <v>249</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3749,12 +3774,12 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3769,7 +3794,7 @@
         <v>249</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3781,12 +3806,12 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3801,7 +3826,7 @@
         <v>249</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3813,12 +3838,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3833,7 +3858,7 @@
         <v>249</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3845,12 +3870,12 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3865,7 +3890,7 @@
         <v>249</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3877,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3897,7 +3922,7 @@
         <v>249</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3909,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3941,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3973,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -4005,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -4037,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4069,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -4101,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -4133,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -4165,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -4197,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -4229,12 +4254,12 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4261,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -4293,12 +4318,12 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4325,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -4357,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -4389,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -4409,7 +4434,7 @@
         <v>249</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4421,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -4453,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -4485,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -4517,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -4549,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4581,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4613,12 +4638,12 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4645,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -4677,12 +4702,12 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4709,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -4741,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -4773,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -4805,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -4837,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -4869,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -4901,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -4921,7 +4946,7 @@
         <v>249</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4933,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -4965,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -4997,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -5029,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -5061,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -5093,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -5125,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -5157,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -5189,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -5221,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -5253,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -5285,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -5317,12 +5342,12 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>327</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -5349,12 +5374,12 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>186</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5381,12 +5406,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5401,7 +5426,7 @@
         <v>249</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5413,12 +5438,12 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5445,12 +5470,12 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -5477,12 +5502,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -5509,12 +5534,12 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5541,12 +5566,12 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5573,12 +5598,12 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5605,12 +5630,12 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5637,12 +5662,12 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5669,12 +5694,12 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5701,12 +5726,12 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5733,12 +5758,12 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5753,7 +5778,7 @@
         <v>249</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5765,12 +5790,12 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5785,7 +5810,7 @@
         <v>249</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -5797,12 +5822,12 @@
         <v>0</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5817,7 +5842,7 @@
         <v>249</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5829,12 +5854,12 @@
         <v>0</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5849,7 +5874,7 @@
         <v>249</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -5861,12 +5886,12 @@
         <v>0</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5881,7 +5906,7 @@
         <v>249</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5893,12 +5918,12 @@
         <v>0</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5913,7 +5938,7 @@
         <v>249</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5925,12 +5950,12 @@
         <v>0</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5945,7 +5970,7 @@
         <v>249</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -5957,12 +5982,12 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5977,7 +6002,7 @@
         <v>249</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -5989,12 +6014,12 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6009,7 +6034,7 @@
         <v>249</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6021,12 +6046,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6041,7 +6066,7 @@
         <v>249</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6053,12 +6078,12 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6073,7 +6098,7 @@
         <v>249</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6085,12 +6110,12 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6105,7 +6130,7 @@
         <v>249</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6117,12 +6142,12 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6137,7 +6162,7 @@
         <v>249</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6149,12 +6174,12 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6169,7 +6194,7 @@
         <v>249</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6181,12 +6206,12 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6201,7 +6226,7 @@
         <v>249</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6213,12 +6238,12 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6233,7 +6258,7 @@
         <v>249</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6245,12 +6270,12 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6265,7 +6290,7 @@
         <v>249</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -6277,12 +6302,12 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6297,7 +6322,7 @@
         <v>249</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6309,12 +6334,12 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6329,7 +6354,7 @@
         <v>249</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6341,12 +6366,12 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6361,7 +6386,7 @@
         <v>249</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6373,12 +6398,12 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6393,7 +6418,7 @@
         <v>249</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6405,12 +6430,12 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6425,7 +6450,7 @@
         <v>249</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6437,12 +6462,12 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6457,7 +6482,7 @@
         <v>249</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6469,12 +6494,12 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6501,12 +6526,12 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6533,12 +6558,12 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6565,12 +6590,12 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6597,12 +6622,12 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6629,12 +6654,12 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6661,12 +6686,12 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6693,12 +6718,12 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6725,12 +6750,12 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6757,12 +6782,12 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6777,7 +6802,7 @@
         <v>249</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6789,12 +6814,12 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6809,7 +6834,7 @@
         <v>249</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -6821,12 +6846,12 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6841,7 +6866,7 @@
         <v>249</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -6853,12 +6878,12 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6873,7 +6898,7 @@
         <v>249</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6885,12 +6910,12 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6905,7 +6930,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6917,12 +6942,12 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6937,7 +6962,7 @@
         <v>249</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -6949,7 +6974,68 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>244</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>332</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>249</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>337</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>249</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/AddrTag-LW.B.xlsx
+++ b/AddrTag-LW.B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCloud\TQWorking\Cheetah600\Cheetah600_LCD\Cheetah600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0EBC3A-0038-4E71-AFD9-47D12E0D22A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA942BC-CEA3-45EE-AE70-4163633A32BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="342">
   <si>
     <t>AddrTag Lib</t>
   </si>
@@ -1235,6 +1235,18 @@
   </si>
   <si>
     <t>1821.2</t>
+  </si>
+  <si>
+    <t>1722.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A64 废水箱满</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL_bit_WASTE_FULL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2252,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5953,9 +5965,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5970,7 +5982,7 @@
         <v>249</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>241</v>
+        <v>339</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -5981,13 +5993,13 @@
       <c r="I117">
         <v>0</v>
       </c>
-      <c r="J117" t="s">
-        <v>210</v>
+      <c r="J117" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -6002,7 +6014,7 @@
         <v>249</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6014,12 +6026,12 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6034,7 +6046,7 @@
         <v>249</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6046,12 +6058,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6066,7 +6078,7 @@
         <v>249</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6078,12 +6090,12 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6098,7 +6110,7 @@
         <v>249</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6110,12 +6122,12 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6130,7 +6142,7 @@
         <v>249</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6142,12 +6154,12 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6162,7 +6174,7 @@
         <v>249</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6174,12 +6186,12 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6194,7 +6206,7 @@
         <v>249</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6206,12 +6218,12 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6226,7 +6238,7 @@
         <v>249</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6238,12 +6250,12 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6258,7 +6270,7 @@
         <v>249</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6270,12 +6282,12 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6290,7 +6302,7 @@
         <v>249</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -6302,12 +6314,12 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6322,7 +6334,7 @@
         <v>249</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6334,12 +6346,12 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6354,7 +6366,7 @@
         <v>249</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6366,12 +6378,12 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6386,7 +6398,7 @@
         <v>249</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6398,12 +6410,12 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6418,7 +6430,7 @@
         <v>249</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6430,12 +6442,12 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6450,7 +6462,7 @@
         <v>249</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6462,12 +6474,12 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6482,7 +6494,7 @@
         <v>249</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6494,12 +6506,12 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6513,8 +6525,8 @@
       <c r="E134">
         <v>249</v>
       </c>
-      <c r="F134" s="1">
-        <v>1758.1</v>
+      <c r="F134" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6526,12 +6538,12 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6546,7 +6558,7 @@
         <v>249</v>
       </c>
       <c r="F135" s="1">
-        <v>1758.2</v>
+        <v>1758.1</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6558,12 +6570,12 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6578,7 +6590,7 @@
         <v>249</v>
       </c>
       <c r="F136" s="1">
-        <v>1758.3</v>
+        <v>1758.2</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6590,12 +6602,12 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6610,7 +6622,7 @@
         <v>249</v>
       </c>
       <c r="F137" s="1">
-        <v>1758.4</v>
+        <v>1758.3</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6627,7 +6639,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6642,7 +6654,7 @@
         <v>249</v>
       </c>
       <c r="F138" s="1">
-        <v>1758.5</v>
+        <v>1758.4</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -6659,7 +6671,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6674,7 +6686,7 @@
         <v>249</v>
       </c>
       <c r="F139" s="1">
-        <v>1758.6</v>
+        <v>1758.5</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6691,7 +6703,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6706,7 +6718,7 @@
         <v>249</v>
       </c>
       <c r="F140" s="1">
-        <v>1758.7</v>
+        <v>1758.6</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -6718,12 +6730,12 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6738,7 +6750,7 @@
         <v>249</v>
       </c>
       <c r="F141" s="1">
-        <v>1758.8</v>
+        <v>1758.7</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -6750,12 +6762,12 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6770,7 +6782,7 @@
         <v>249</v>
       </c>
       <c r="F142" s="1">
-        <v>1758.9</v>
+        <v>1758.8</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -6782,12 +6794,12 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6801,8 +6813,8 @@
       <c r="E143">
         <v>249</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>257</v>
+      <c r="F143" s="1">
+        <v>1758.9</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6814,12 +6826,12 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6834,7 +6846,7 @@
         <v>249</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -6846,12 +6858,12 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6866,7 +6878,7 @@
         <v>249</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -6878,12 +6890,12 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6898,7 +6910,7 @@
         <v>249</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6910,12 +6922,12 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6930,7 +6942,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6942,12 +6954,12 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6962,7 +6974,7 @@
         <v>249</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -6974,12 +6986,12 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -6994,7 +7006,7 @@
         <v>249</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7004,37 +7016,69 @@
       </c>
       <c r="I149">
         <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>332</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>249</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>337</v>
       </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>249</v>
-      </c>
-      <c r="F150" s="1" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>249</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150" t="s">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
         <v>336</v>
       </c>
     </row>
